--- a/Model_setup/ISONE_data_file/Scenarios/Generator_files/generators-2040-PV-4x.xlsx
+++ b/Model_setup/ISONE_data_file/Scenarios/Generator_files/generators-2040-PV-4x.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Desktop\ISONE_SANDY\ISONE_UCED\Model_setup\ISONE_data_file\Scenarios\Generator_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Documents\GitHub\ISONE_UCED_Sandy\Model_setup\ISONE_data_file\Scenarios\Generator_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="1100">
   <si>
     <t>State</t>
   </si>
@@ -3302,12 +3302,6 @@
     <t>WEMA-Onshore</t>
   </si>
   <si>
-    <t>VT-NG</t>
-  </si>
-  <si>
-    <t>ME-NG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deleted and Added Generators </t>
   </si>
   <si>
@@ -3324,6 +3318,24 @@
   </si>
   <si>
     <t>Sheet: Generators (Renewables)</t>
+  </si>
+  <si>
+    <t>CT_NG</t>
+  </si>
+  <si>
+    <t>VT_NG</t>
+  </si>
+  <si>
+    <t>ME_NG</t>
+  </si>
+  <si>
+    <t>NEMA_NG</t>
+  </si>
+  <si>
+    <t>SEMA_NG</t>
+  </si>
+  <si>
+    <t>WCMA_NG</t>
   </si>
 </sst>
 </file>
@@ -3833,7 +3845,7 @@
   <dimension ref="A1:N334"/>
   <sheetViews>
     <sheetView topLeftCell="A308" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N329" sqref="N329"/>
+      <selection activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -19227,7 +19239,7 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="2" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>698</v>
@@ -19279,7 +19291,7 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="2" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>698</v>
@@ -19331,7 +19343,7 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="2" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>698</v>
@@ -19383,7 +19395,7 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="2" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>698</v>
@@ -19435,7 +19447,7 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="2" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>698</v>
@@ -19487,13 +19499,13 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="2" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>698</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>1066</v>
+        <v>6</v>
       </c>
       <c r="D334" s="2">
         <v>17</v>
@@ -19550,7 +19562,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -41241,12 +41253,12 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -41295,7 +41307,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="23" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1007</v>
@@ -43573,7 +43585,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="23" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>1080</v>
@@ -43678,7 +43690,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="B59" s="11" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -43703,7 +43715,7 @@
     </row>
     <row r="61" spans="1:15" ht="15.6">
       <c r="A61" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
@@ -43747,7 +43759,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -43772,7 +43784,7 @@
     </row>
     <row r="68" spans="1:7" ht="15.6">
       <c r="A68" s="19" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>9</v>
@@ -43837,7 +43849,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>1063</v>
